--- a/7/2/2/1/2/2/Bancos comerciales y cooperativas 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/2/1/2/2/Bancos comerciales y cooperativas 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Serie</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -692,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG75"/>
+  <dimension ref="A1:AG76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8189,13 +8192,13 @@
         <v>4840</v>
       </c>
       <c r="F75">
-        <v>29620</v>
+        <v>29522</v>
       </c>
       <c r="G75">
         <v>12215</v>
       </c>
       <c r="H75">
-        <v>17406</v>
+        <v>17307</v>
       </c>
       <c r="I75">
         <v>-1033</v>
@@ -8228,13 +8231,13 @@
         <v>306</v>
       </c>
       <c r="S75">
-        <v>2943</v>
+        <v>3041</v>
       </c>
       <c r="T75">
-        <v>-11931</v>
+        <v>-11940</v>
       </c>
       <c r="U75">
-        <v>274263</v>
+        <v>274272</v>
       </c>
       <c r="V75">
         <v>143255</v>
@@ -8246,10 +8249,10 @@
         <v>72511</v>
       </c>
       <c r="Y75">
-        <v>58986</v>
+        <v>58995</v>
       </c>
       <c r="Z75">
-        <v>58986</v>
+        <v>58995</v>
       </c>
       <c r="AA75">
         <v>30871</v>
@@ -8271,6 +8274,107 @@
       </c>
       <c r="AG75">
         <v>8711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76">
+        <v>278303</v>
+      </c>
+      <c r="C76">
+        <v>40226</v>
+      </c>
+      <c r="D76">
+        <v>34457</v>
+      </c>
+      <c r="E76">
+        <v>5769</v>
+      </c>
+      <c r="F76">
+        <v>39270</v>
+      </c>
+      <c r="G76">
+        <v>21244</v>
+      </c>
+      <c r="H76">
+        <v>18026</v>
+      </c>
+      <c r="I76">
+        <v>-673</v>
+      </c>
+      <c r="J76">
+        <v>188327</v>
+      </c>
+      <c r="K76">
+        <v>14238</v>
+      </c>
+      <c r="L76">
+        <v>174089</v>
+      </c>
+      <c r="M76">
+        <v>6076</v>
+      </c>
+      <c r="N76">
+        <v>5476</v>
+      </c>
+      <c r="O76">
+        <v>600</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>302</v>
+      </c>
+      <c r="R76">
+        <v>302</v>
+      </c>
+      <c r="S76">
+        <v>4775</v>
+      </c>
+      <c r="T76">
+        <v>-4131</v>
+      </c>
+      <c r="U76">
+        <v>282434</v>
+      </c>
+      <c r="V76">
+        <v>152402</v>
+      </c>
+      <c r="W76">
+        <v>79941</v>
+      </c>
+      <c r="X76">
+        <v>72460</v>
+      </c>
+      <c r="Y76">
+        <v>54803</v>
+      </c>
+      <c r="Z76">
+        <v>54803</v>
+      </c>
+      <c r="AA76">
+        <v>37325</v>
+      </c>
+      <c r="AB76">
+        <v>33840</v>
+      </c>
+      <c r="AC76">
+        <v>3484</v>
+      </c>
+      <c r="AD76">
+        <v>28310</v>
+      </c>
+      <c r="AE76">
+        <v>24163</v>
+      </c>
+      <c r="AF76">
+        <v>4147</v>
+      </c>
+      <c r="AG76">
+        <v>9596</v>
       </c>
     </row>
   </sheetData>
